--- a/卡牌/汇总.xlsx
+++ b/卡牌/汇总.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392FF02E-BE28-45BE-9B34-46076D17D24A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBBC8C8-D5C5-4ECB-B551-D9B47FD2BAF7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="手牌" sheetId="1" r:id="rId1"/>
     <sheet name="历练牌" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -547,6 +547,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -555,22 +561,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -853,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -865,80 +865,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -949,7 +949,9 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>27</v>
@@ -975,7 +977,9 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>8</v>
+      </c>
       <c r="D4" s="2">
         <v>4</v>
       </c>
@@ -1005,7 +1009,9 @@
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>6</v>
+      </c>
       <c r="D5" s="2">
         <v>3</v>
       </c>
@@ -1035,7 +1041,9 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
       <c r="D6" s="2">
         <v>3</v>
       </c>
@@ -1065,7 +1073,9 @@
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>24</v>
+      </c>
       <c r="D7" s="2">
         <v>3</v>
       </c>
@@ -1101,7 +1111,9 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>24</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1129,7 +1141,9 @@
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2">
+        <v>9</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1159,7 +1173,9 @@
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>12</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -1197,7 +1213,9 @@
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <v>12</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1223,7 +1241,9 @@
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1249,7 +1269,9 @@
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>6</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1275,7 +1297,9 @@
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2">
+        <v>16</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1303,7 +1327,9 @@
       <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2">
+        <v>7</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1319,6 +1345,12 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <f>SUM(C3:C15)</f>
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1338,7 +1370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83417ADA-0717-42A3-9865-81545172541C}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -1354,46 +1386,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="5" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="4" t="s">
+      <c r="O1" s="12"/>
+      <c r="P1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -1401,25 +1433,25 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
       <c r="N2" s="2" t="s">
         <v>52</v>
       </c>
@@ -1778,7 +1810,7 @@
       <c r="P13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="Q13" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1879,7 +1911,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="7" t="s">
+      <c r="Q16" s="4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1933,7 +1965,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="10" t="s">
+      <c r="O18" s="5" t="s">
         <v>77</v>
       </c>
       <c r="P18" s="3"/>
@@ -1960,7 +1992,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="10" t="s">
+      <c r="O19" s="5" t="s">
         <v>76</v>
       </c>
       <c r="P19" s="3"/>
@@ -1987,7 +2019,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="10" t="s">
+      <c r="O20" s="5" t="s">
         <v>79</v>
       </c>
       <c r="P20" s="3"/>
@@ -2078,7 +2110,7 @@
         <v>85</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" s="10" t="s">
+      <c r="O23" s="5" t="s">
         <v>84</v>
       </c>
       <c r="P23" s="3"/>
@@ -2107,11 +2139,11 @@
       <c r="L24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="4" t="s">
         <v>89</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" s="10" t="s">
+      <c r="O24" s="5" t="s">
         <v>84</v>
       </c>
       <c r="P24" s="3"/>
@@ -2144,7 +2176,7 @@
         <v>90</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" s="10" t="s">
+      <c r="O25" s="5" t="s">
         <v>91</v>
       </c>
       <c r="P25" s="3"/>
@@ -2177,7 +2209,7 @@
         <v>94</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="10" t="s">
+      <c r="O26" s="5" t="s">
         <v>60</v>
       </c>
       <c r="P26" s="3"/>
@@ -2508,6 +2540,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="K1:K2"/>
@@ -2515,11 +2552,6 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/卡牌/汇总.xlsx
+++ b/卡牌/汇总.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606A7C24-8854-49BD-BBE2-E442E18D2907}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73CBA83-316C-419E-82FF-27F148227DB0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="137">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,38 +415,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>铜锁箱子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金锁箱子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4点箱子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6点箱子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3点铜锁箱子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5点铜锁箱子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3点金锁箱子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5点金锁箱子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+2功能牌或+2道具牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -492,6 +460,118 @@
   </si>
   <si>
     <t>许愿1-6，掷1个骰子，点数大于许愿数字，获得许愿张自选牌，否则丢弃许愿张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜锁箱子-空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜锁箱子-功1或道1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜锁箱子-功2或道2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜锁箱子-吸血鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜锁箱子-毛毛虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金锁箱子-功2或道2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金锁箱子-功1或道1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金锁箱子-毛毛虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4点箱子-空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4点箱子-功2或道2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4点箱子-功1或道1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4点箱子-石像怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6点箱子-功2或道2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6点箱子-功1或道1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6点箱子-吸血鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3点铜锁箱子-功2或道2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3点铜锁箱子-功1或道1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3点铜锁箱子-神怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5点铜锁箱子-功2或道2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5点铜锁箱子-功1或道1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5点铜锁箱子-石像怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5点铜锁箱子-神怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5点铜锁箱子-毛毛虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3点金锁箱子-空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3点金锁箱子-石像怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3点金锁箱子-功1或道1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5点金锁箱子-功2或道2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5点金锁箱子-功1或道1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,6 +714,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -643,24 +729,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -944,10 +1024,10 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -956,40 +1036,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1404,9 +1484,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
         <v>38</v>
       </c>
@@ -1434,7 +1512,9 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -1462,10 +1542,10 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="I36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q40" sqref="Q40"/>
+      <selection pane="bottomRight" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1479,85 +1559,85 @@
     <col min="18" max="18" width="30.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="8" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="12" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="13" t="s">
+    <row r="2" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="13" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2250,14 +2330,14 @@
       <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>97</v>
+      <c r="A23" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -2276,20 +2356,20 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>97</v>
+    <row r="24" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -2308,20 +2388,20 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>97</v>
+    <row r="25" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -2340,20 +2420,20 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>97</v>
+    <row r="26" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -2371,7 +2451,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -2383,15 +2463,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>97</v>
+    <row r="27" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -2409,7 +2489,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -2418,18 +2498,18 @@
         <v>79</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -2448,20 +2528,20 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>98</v>
+    <row r="29" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -2480,20 +2560,20 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>98</v>
+    <row r="30" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -2511,7 +2591,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -2520,18 +2600,18 @@
         <v>79</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -2550,20 +2630,20 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -2582,20 +2662,20 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -2614,20 +2694,20 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -2645,7 +2725,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -2654,18 +2734,18 @@
         <v>60</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -2684,20 +2764,20 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>100</v>
+    <row r="36" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D36" s="1">
         <v>4</v>
@@ -2716,20 +2796,20 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>100</v>
+    <row r="37" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -2747,7 +2827,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -2759,15 +2839,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>101</v>
+    <row r="38" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -2786,20 +2866,20 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>101</v>
+    <row r="39" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D39" s="1">
         <v>3</v>
@@ -2818,20 +2898,20 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="1"/>
     </row>
     <row r="40" spans="1:18" ht="42" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>101</v>
+      <c r="A40" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -2849,7 +2929,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -2858,18 +2938,18 @@
         <v>79</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
@@ -2888,20 +2968,20 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>102</v>
+    <row r="42" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -2920,20 +3000,20 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>102</v>
+    <row r="43" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
@@ -2951,7 +3031,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -2960,18 +3040,18 @@
         <v>60</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="42" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>102</v>
+      <c r="A44" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
@@ -2989,7 +3069,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -2998,18 +3078,18 @@
         <v>79</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -3027,7 +3107,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -3036,18 +3116,18 @@
         <v>79</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -3066,20 +3146,20 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>103</v>
+    <row r="47" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -3098,20 +3178,20 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>103</v>
+    <row r="48" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
@@ -3129,7 +3209,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -3138,18 +3218,18 @@
         <v>60</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D49" s="1">
         <v>2</v>
@@ -3168,20 +3248,20 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>104</v>
+    <row r="50" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -3200,7 +3280,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1"/>
